--- a/DataBase/arm.xlsx
+++ b/DataBase/arm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF85BBE0-42F5-4EA6-9669-88710D5EDCFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9663DD1C-37D8-4AB3-BB8B-0287D68227BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62CA2CD3-2B32-469F-80B6-67BF17E6A60B}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{62CA2CD3-2B32-469F-80B6-67BF17E6A60B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권태감(쇠약감)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결핵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>감기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기력함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,10 +458,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -530,5 +530,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataBase/arm.xlsx
+++ b/DataBase/arm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9663DD1C-37D8-4AB3-BB8B-0287D68227BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96BCCF-77C9-4B4C-A293-9C1DF48BBED4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{62CA2CD3-2B32-469F-80B6-67BF17E6A60B}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
